--- a/기획서/스타듀벨리 종합 DB v1.2.xlsx
+++ b/기획서/스타듀벨리 종합 DB v1.2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_10\Documents\새 폴더\새 폴더\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nia Kim\Downloads\새 폴더\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D55A9E3-9E5F-4842-86E2-61CC17A0219E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="0" windowWidth="17190" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="0" windowWidth="17190" windowHeight="15600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DB히스토리" sheetId="10" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <sheet name="기타아이템DB" sheetId="7" r:id="rId8"/>
     <sheet name="크래프트DB" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="164">
   <si>
     <t>작물 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -421,10 +420,6 @@
   </si>
   <si>
     <t>회복량(HP)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회복량(스태미너)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1348,7 +1343,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1528,7 +1523,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -2112,22 +2107,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2334,8 +2318,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2355,12 +2363,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2426,30 +2428,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4285,14 +4263,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2CC710-BA0D-4C42-B947-B9AFB1BDE3E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
     <col min="6" max="6" width="15.875" style="1" customWidth="1"/>
@@ -4300,28 +4278,28 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B2" s="76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="77" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="77" t="s">
-        <v>137</v>
-      </c>
       <c r="F2" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="G2" s="78" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B3" s="70">
         <v>1</v>
       </c>
@@ -4332,34 +4310,34 @@
         <v>0.5</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G3" s="72"/>
     </row>
-    <row r="4" spans="2:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="B4" s="120">
+    <row r="4" spans="2:7" ht="67.5" x14ac:dyDescent="0.6">
+      <c r="B4" s="90">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C4" s="121">
+      <c r="C4" s="91">
         <v>1028</v>
       </c>
-      <c r="D4" s="122">
+      <c r="D4" s="92">
         <v>0.52916666666666667</v>
       </c>
-      <c r="E4" s="121" t="s">
+      <c r="E4" s="91" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="91" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="93" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="121" t="s">
-        <v>162</v>
-      </c>
-      <c r="G4" s="123" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="2:7" ht="34.15" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B5" s="73">
         <v>1.2</v>
       </c>
@@ -4370,24 +4348,24 @@
         <v>0.52916666666666667</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="124" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="75" t="s">
         <v>163</v>
       </c>
-      <c r="G5" s="75" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="119"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.6">
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="89"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.6">
       <c r="G7" s="69"/>
     </row>
   </sheetData>
@@ -4398,14 +4376,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="5.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
@@ -4418,49 +4396,46 @@
     <col min="10" max="10" width="17" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="19.875" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="9.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="17.125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="13" max="13" width="25.75" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="17.125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="87" t="s">
+    <row r="1" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="2" spans="2:13" ht="25.15" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B2" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-    </row>
-    <row r="3" spans="2:14" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="90" t="s">
-        <v>144</v>
-      </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="92"/>
-    </row>
-    <row r="4" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="97"/>
+    </row>
+    <row r="3" spans="2:13" ht="135" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B3" s="98" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="100"/>
+    </row>
+    <row r="4" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B4" s="23" t="s">
         <v>0</v>
       </c>
@@ -4468,19 +4443,19 @@
         <v>3</v>
       </c>
       <c r="D4" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>79</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>80</v>
       </c>
       <c r="G4" s="24" t="s">
         <v>19</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I4" s="24" t="s">
         <v>23</v>
@@ -4494,14 +4469,11 @@
       <c r="L4" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="M4" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="N4" s="26" t="s">
+      <c r="M4" s="26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B5" s="52" t="s">
         <v>4</v>
       </c>
@@ -4535,15 +4507,14 @@
         <f>I5</f>
         <v>3</v>
       </c>
-      <c r="L5" s="93" t="s">
-        <v>82</v>
-      </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="56" t="s">
+      <c r="L5" s="86" t="s">
+        <v>81</v>
+      </c>
+      <c r="M5" s="56" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B6" s="57" t="s">
         <v>5</v>
       </c>
@@ -4580,12 +4551,9 @@
       <c r="L6" s="60">
         <v>5</v>
       </c>
-      <c r="M6" s="60">
-        <v>0</v>
-      </c>
-      <c r="N6" s="61"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M6" s="61"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B7" s="57" t="s">
         <v>6</v>
       </c>
@@ -4620,12 +4588,11 @@
         <v>12</v>
       </c>
       <c r="L7" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="M7" s="86"/>
-      <c r="N7" s="61"/>
-    </row>
-    <row r="8" spans="2:14" ht="49.5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="M7" s="61"/>
+    </row>
+    <row r="8" spans="2:13" ht="50.65" x14ac:dyDescent="0.6">
       <c r="B8" s="57" t="s">
         <v>7</v>
       </c>
@@ -4662,14 +4629,11 @@
       <c r="L8" s="60">
         <v>8</v>
       </c>
-      <c r="M8" s="60">
-        <v>0</v>
-      </c>
-      <c r="N8" s="62" t="s">
+      <c r="M8" s="62" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B9" s="57" t="s">
         <v>8</v>
       </c>
@@ -4706,14 +4670,11 @@
       <c r="L9" s="60">
         <v>6</v>
       </c>
-      <c r="M9" s="60">
-        <v>0</v>
-      </c>
-      <c r="N9" s="61" t="s">
+      <c r="M9" s="61" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B10" s="57" t="s">
         <v>9</v>
       </c>
@@ -4750,12 +4711,9 @@
       <c r="L10" s="60">
         <v>10</v>
       </c>
-      <c r="M10" s="60">
-        <v>0</v>
-      </c>
-      <c r="N10" s="61"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M10" s="61"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B11" s="57" t="s">
         <v>10</v>
       </c>
@@ -4790,12 +4748,11 @@
         <v>8.6666666666666661</v>
       </c>
       <c r="L11" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="M11" s="86"/>
-      <c r="N11" s="61"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="M11" s="61"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B12" s="57" t="s">
         <v>11</v>
       </c>
@@ -4830,12 +4787,11 @@
         <v>8.6666666666666661</v>
       </c>
       <c r="L12" s="85" t="s">
-        <v>82</v>
-      </c>
-      <c r="M12" s="86"/>
-      <c r="N12" s="61"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+      <c r="M12" s="61"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B13" s="57" t="s">
         <v>12</v>
       </c>
@@ -4870,16 +4826,13 @@
         <v>8</v>
       </c>
       <c r="L13" s="60">
-        <v>0</v>
-      </c>
-      <c r="M13" s="60">
         <v>5</v>
       </c>
-      <c r="N13" s="61" t="s">
+      <c r="M13" s="61" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B14" s="57" t="s">
         <v>13</v>
       </c>
@@ -4916,14 +4869,11 @@
       <c r="L14" s="60">
         <v>10</v>
       </c>
-      <c r="M14" s="60">
-        <v>0</v>
-      </c>
-      <c r="N14" s="61" t="s">
+      <c r="M14" s="61" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="33" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="33.75" x14ac:dyDescent="0.6">
       <c r="B15" s="57" t="s">
         <v>14</v>
       </c>
@@ -4959,14 +4909,11 @@
       <c r="L15" s="60">
         <v>8</v>
       </c>
-      <c r="M15" s="55">
-        <v>0</v>
-      </c>
-      <c r="N15" s="63" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M15" s="63" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B16" s="57" t="s">
         <v>15</v>
       </c>
@@ -5003,12 +4950,9 @@
       <c r="L16" s="60">
         <v>15</v>
       </c>
-      <c r="M16" s="55">
-        <v>0</v>
-      </c>
-      <c r="N16" s="61"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M16" s="61"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B17" s="57" t="s">
         <v>16</v>
       </c>
@@ -5043,14 +4987,11 @@
         <v>12</v>
       </c>
       <c r="L17" s="60">
-        <v>0</v>
-      </c>
-      <c r="M17" s="60">
         <v>20</v>
       </c>
-      <c r="N17" s="61"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M17" s="61"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.6">
       <c r="B18" s="57" t="s">
         <v>18</v>
       </c>
@@ -5087,14 +5028,11 @@
       <c r="L18" s="60">
         <v>15</v>
       </c>
-      <c r="M18" s="60">
-        <v>0</v>
-      </c>
-      <c r="N18" s="61" t="s">
+      <c r="M18" s="61" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B19" s="64" t="s">
         <v>17</v>
       </c>
@@ -5130,12 +5068,9 @@
       <c r="L19" s="67">
         <v>25</v>
       </c>
-      <c r="M19" s="67">
-        <v>0</v>
-      </c>
-      <c r="N19" s="68"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M19" s="68"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.6">
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -5143,9 +5078,8 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.6">
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -5153,9 +5087,8 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.6">
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -5163,9 +5096,8 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.6">
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
@@ -5173,9 +5105,8 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.6">
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -5183,9 +5114,8 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.6">
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -5193,16 +5123,11 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="L7:M7"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K5:K19">
@@ -5271,14 +5196,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6801FA0-A667-4433-BECD-4BD035CAEB43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="5" width="16.625" style="1" customWidth="1"/>
@@ -5286,26 +5211,26 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="87" t="s">
+    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="2" spans="2:6" ht="25.15" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B2" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="89"/>
-    </row>
-    <row r="3" spans="2:6" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="90" t="s">
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="97"/>
+    </row>
+    <row r="3" spans="2:6" ht="86.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B3" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="92"/>
-    </row>
-    <row r="4" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="100"/>
+    </row>
+    <row r="4" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
@@ -5322,7 +5247,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B5" s="12" t="s">
         <v>30</v>
       </c>
@@ -5339,7 +5264,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B6" s="15" t="s">
         <v>31</v>
       </c>
@@ -5354,7 +5279,7 @@
       </c>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B7" s="15" t="s">
         <v>32</v>
       </c>
@@ -5369,7 +5294,7 @@
       </c>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B8" s="15" t="s">
         <v>33</v>
       </c>
@@ -5386,7 +5311,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B9" s="15" t="s">
         <v>34</v>
       </c>
@@ -5401,7 +5326,7 @@
       </c>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B10" s="15" t="s">
         <v>35</v>
       </c>
@@ -5416,7 +5341,7 @@
       </c>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B11" s="17" t="s">
         <v>36</v>
       </c>
@@ -5444,14 +5369,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175E2C1A-5185-4983-B058-DED8DAB046B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="5" width="12.5" style="1" customWidth="1"/>
@@ -5459,26 +5384,26 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="87" t="s">
+    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="2" spans="2:6" ht="25.15" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B2" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="89"/>
-    </row>
-    <row r="3" spans="2:6" ht="123.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="97"/>
+    </row>
+    <row r="3" spans="2:6" ht="123.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B3" s="101" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="103"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B4" s="20" t="s">
         <v>41</v>
       </c>
@@ -5495,7 +5420,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B5" s="30">
         <v>1</v>
       </c>
@@ -5510,7 +5435,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B6" s="30">
         <v>2</v>
       </c>
@@ -5525,7 +5450,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B7" s="30">
         <v>3</v>
       </c>
@@ -5540,7 +5465,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B8" s="30">
         <v>4</v>
       </c>
@@ -5555,7 +5480,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B9" s="30">
         <v>5</v>
       </c>
@@ -5572,7 +5497,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B10" s="30">
         <v>6</v>
       </c>
@@ -5589,7 +5514,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B11" s="30">
         <v>7</v>
       </c>
@@ -5606,7 +5531,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B12" s="30">
         <v>8</v>
       </c>
@@ -5623,7 +5548,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B13" s="30">
         <v>9</v>
       </c>
@@ -5640,7 +5565,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B14" s="31">
         <v>10</v>
       </c>
@@ -5670,40 +5595,40 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB6344C-AB1E-4CF2-BC84-FF1F8AED66BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="6" width="14.25" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="87" t="s">
+    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="2" spans="2:6" ht="25.15" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B2" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="89"/>
-    </row>
-    <row r="3" spans="2:6" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="98" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="97"/>
+    </row>
+    <row r="3" spans="2:6" ht="118.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B3" s="104" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="103"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B4" s="20" t="s">
         <v>72</v>
       </c>
@@ -5720,7 +5645,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B5" s="30">
         <v>1</v>
       </c>
@@ -5737,7 +5662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B6" s="30">
         <v>2</v>
       </c>
@@ -5754,7 +5679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B7" s="30">
         <v>3</v>
       </c>
@@ -5771,7 +5696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B8" s="30">
         <v>4</v>
       </c>
@@ -5788,7 +5713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B9" s="30">
         <v>5</v>
       </c>
@@ -5805,7 +5730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B10" s="30">
         <v>6</v>
       </c>
@@ -5822,7 +5747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B11" s="30">
         <v>7</v>
       </c>
@@ -5839,7 +5764,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B12" s="30">
         <v>8</v>
       </c>
@@ -5856,7 +5781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B13" s="30">
         <v>9</v>
       </c>
@@ -5873,7 +5798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B14" s="31">
         <v>10</v>
       </c>
@@ -5902,14 +5827,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5C2F25-4C67-4BB6-9C38-F058BF2D1F71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11.625" style="1" customWidth="1"/>
@@ -5920,28 +5845,28 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="87" t="s">
+    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="2" spans="2:6" ht="25.15" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B2" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="89"/>
-    </row>
-    <row r="3" spans="2:6" ht="187.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="99" t="s">
-        <v>157</v>
-      </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="101"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="97"/>
+    </row>
+    <row r="3" spans="2:6" ht="187.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B3" s="105" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B4" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>65</v>
@@ -5956,9 +5881,9 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B5" s="30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>69</v>
@@ -5973,9 +5898,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B6" s="30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>70</v>
@@ -5990,9 +5915,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B7" s="30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>71</v>
@@ -6007,9 +5932,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.6">
       <c r="B8" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>71</v>
@@ -6024,12 +5949,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B9" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>68</v>
@@ -6052,41 +5977,41 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868851EF-8D4A-4A24-8AC0-653B8DAD1868}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="4" max="4" width="14.375" customWidth="1"/>
     <col min="5" max="5" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="87" t="s">
+    <row r="1" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="2" spans="2:7" ht="25.15" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B2" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="89"/>
-    </row>
-    <row r="3" spans="2:7" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="102" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="104"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="97"/>
+    </row>
+    <row r="3" spans="2:7" ht="139.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B3" s="108" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="110"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B4" s="34" t="s">
         <v>56</v>
       </c>
@@ -6094,7 +6019,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>57</v>
@@ -6106,7 +6031,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B5" s="30" t="s">
         <v>58</v>
       </c>
@@ -6114,7 +6039,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>62</v>
@@ -6126,7 +6051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B6" s="30" t="s">
         <v>59</v>
       </c>
@@ -6134,7 +6059,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E6" s="32" t="s">
         <v>63</v>
@@ -6146,7 +6071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.6">
       <c r="B7" s="30" t="s">
         <v>60</v>
       </c>
@@ -6154,7 +6079,7 @@
         <v>130</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E7" s="32" t="s">
         <v>64</v>
@@ -6166,7 +6091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B8" s="31" t="s">
         <v>61</v>
       </c>
@@ -6174,10 +6099,10 @@
         <v>190</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F8" s="37">
         <v>220</v>
@@ -6197,184 +6122,184 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691C8CFB-F1D1-4BC6-AB8B-542CD16E6935}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="2" max="5" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" ht="27" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="87" t="s">
+    <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="2" spans="2:5" ht="25.15" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="B2" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="97"/>
+    </row>
+    <row r="3" spans="2:5" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B3" s="112" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="114"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B4" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="89"/>
-    </row>
-    <row r="3" spans="2:5" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="106" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="40" t="s">
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B5" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D5" s="79" t="s">
         <v>101</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="79" t="s">
-        <v>102</v>
       </c>
       <c r="E5" s="80">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.6">
       <c r="B6" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" s="79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="80">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.6">
       <c r="B7" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" s="80">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.6">
       <c r="B8" s="51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" s="81">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.6">
       <c r="B9" s="51" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="81">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.6">
       <c r="B10" s="51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" s="79" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="81">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.6">
       <c r="B11" s="51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D11" s="79" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="81">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="33.75" x14ac:dyDescent="0.6">
       <c r="B12" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="82" t="s">
         <v>126</v>
-      </c>
-      <c r="C12" s="79" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="82" t="s">
-        <v>127</v>
       </c>
       <c r="E12" s="81">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.6">
       <c r="B13" s="51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="79" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13" s="81">
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B14" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="83" t="s">
-        <v>100</v>
-      </c>
       <c r="D14" s="83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="84"/>
     </row>
@@ -6389,14 +6314,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7D563F-C58F-492D-952B-B2858C833A92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="17.375" style="1" customWidth="1"/>
@@ -6411,74 +6336,74 @@
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" ht="26.25" x14ac:dyDescent="0.5">
-      <c r="B2" s="109" t="s">
+    <row r="1" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="2" spans="2:10" ht="24.75" x14ac:dyDescent="0.85">
+      <c r="B2" s="115" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="118"/>
+    </row>
+    <row r="3" spans="2:10" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B3" s="119" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="122"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="B4" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="112"/>
-    </row>
-    <row r="3" spans="2:10" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="113" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="116"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="39" t="s">
-        <v>107</v>
-      </c>
       <c r="C4" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="40" t="s">
+      <c r="F4" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="F4" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>88</v>
-      </c>
       <c r="H4" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I4" s="48" t="s">
         <v>74</v>
       </c>
       <c r="J4" s="41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="B5" s="42" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="42" t="s">
-        <v>109</v>
-      </c>
       <c r="C5" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="43">
         <v>10</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F5" s="43">
         <v>4</v>
@@ -6489,21 +6414,21 @@
         <v>2</v>
       </c>
       <c r="J5" s="44" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B6" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="43">
         <v>12</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" s="43">
         <v>5</v>
@@ -6514,21 +6439,21 @@
         <v>3</v>
       </c>
       <c r="J6" s="44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.6">
+      <c r="B7" s="42" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="42" t="s">
-        <v>112</v>
-      </c>
       <c r="C7" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" s="43">
         <v>14</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F7" s="43">
         <v>6</v>
@@ -6539,21 +6464,21 @@
         <v>4</v>
       </c>
       <c r="J7" s="44" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B8" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="43">
         <v>16</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" s="43">
         <v>7</v>
@@ -6564,21 +6489,21 @@
         <v>5</v>
       </c>
       <c r="J8" s="44" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B9" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D9" s="43">
         <v>18</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F9" s="43">
         <v>8</v>
@@ -6589,21 +6514,21 @@
         <v>6</v>
       </c>
       <c r="J9" s="44" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B10" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="43">
         <v>20</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="43">
         <v>9</v>
@@ -6614,21 +6539,21 @@
         <v>7</v>
       </c>
       <c r="J10" s="44" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B11" s="42" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="43">
         <v>22</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F11" s="43">
         <v>10</v>
@@ -6639,21 +6564,21 @@
         <v>8</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B12" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="43">
         <v>24</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F12" s="43">
         <v>11</v>
@@ -6664,21 +6589,21 @@
         <v>9</v>
       </c>
       <c r="J12" s="44" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B13" s="42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D13" s="43">
         <v>26</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F13" s="43">
         <v>12</v>
@@ -6689,21 +6614,21 @@
         <v>10</v>
       </c>
       <c r="J13" s="44" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B14" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="43">
         <v>20</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F14" s="43">
         <v>10</v>
@@ -6718,21 +6643,21 @@
         <v>10</v>
       </c>
       <c r="J14" s="44" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B15" s="42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="43">
         <v>30</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F15" s="43">
         <v>15</v>
@@ -6747,21 +6672,21 @@
         <v>10</v>
       </c>
       <c r="J15" s="44" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B16" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="43">
         <v>40</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16" s="43">
         <v>20</v>
@@ -6776,15 +6701,15 @@
         <v>10</v>
       </c>
       <c r="J16" s="44" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B17" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D17" s="43">
         <v>10</v>
@@ -6797,15 +6722,15 @@
         <v>3</v>
       </c>
       <c r="J17" s="44" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.6">
       <c r="B18" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" s="43">
         <v>20</v>
@@ -6818,15 +6743,15 @@
         <v>5</v>
       </c>
       <c r="J18" s="44" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B19" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D19" s="46">
         <v>2</v>
@@ -6839,7 +6764,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
